--- a/src/main/resources/websheet/WebSheetDataInput.xlsx
+++ b/src/main/resources/websheet/WebSheetDataInput.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17310" windowHeight="10860" tabRatio="989"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17316" windowHeight="10860" tabRatio="989"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Configuration" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="ACCAC">#N/A</definedName>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>My budget</t>
   </si>
@@ -85,69 +84,6 @@
   </si>
   <si>
     <t>* This budget is meant to be a starting point to help you begin to budget. Hire a professional financial consultant if you want a fuller understanding of your finances.</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Free</t>
-  </si>
-  <si>
-    <t>Validation Error Messages</t>
-  </si>
-  <si>
-    <t>Attributes Value</t>
-  </si>
-  <si>
-    <t>Attributes Type</t>
-  </si>
-  <si>
-    <t>Target Column/Cell</t>
-  </si>
-  <si>
-    <t>Max Rows Per Page</t>
-  </si>
-  <si>
-    <t>Form Width</t>
-  </si>
-  <si>
-    <t>Form Page Type</t>
-  </si>
-  <si>
-    <t>Initial Rows</t>
-  </si>
-  <si>
-    <t>Allow ADD/DELETE ROW</t>
-  </si>
-  <si>
-    <t>Form Body Type</t>
-  </si>
-  <si>
-    <t>Form Footer Range</t>
-  </si>
-  <si>
-    <t>Form Body Range</t>
-  </si>
-  <si>
-    <t>Form Header Range</t>
-  </si>
-  <si>
-    <t>Sheet Name</t>
-  </si>
-  <si>
-    <t>Tab Name</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>$B$2 : $E$3</t>
-  </si>
-  <si>
-    <t>$B$4 : $E$25</t>
-  </si>
-  <si>
-    <t>Sheet1</t>
   </si>
 </sst>
 </file>
@@ -158,7 +94,7 @@
     <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="165" formatCode="\$#,##0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -282,14 +218,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,12 +250,6 @@
         <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -341,7 +265,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -441,12 +365,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -831,34 +749,34 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.28515625"/>
-    <col min="2" max="2" width="64.42578125"/>
-    <col min="3" max="3" width="16.42578125"/>
-    <col min="4" max="4" width="16.42578125" style="1"/>
-    <col min="5" max="5" width="15.5703125"/>
-    <col min="6" max="1025" width="14.42578125"/>
+    <col min="1" max="1" width="1.33203125"/>
+    <col min="2" max="2" width="64.44140625"/>
+    <col min="3" max="3" width="16.44140625"/>
+    <col min="4" max="4" width="16.44140625" style="1"/>
+    <col min="5" max="5" width="15.5546875"/>
+    <col min="6" max="1025" width="14.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
+    <row r="4" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="4">
         <f>(E4*12)</f>
         <v>24000</v>
@@ -867,11 +785,11 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
+    <row r="5" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
     </row>
     <row r="6" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6"/>
@@ -885,7 +803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
@@ -895,7 +813,7 @@
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="12" t="s">
         <v>7</v>
       </c>
@@ -911,7 +829,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="16" t="s">
         <v>8</v>
       </c>
@@ -927,7 +845,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="12" t="s">
         <v>9</v>
       </c>
@@ -943,7 +861,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="16" t="s">
         <v>10</v>
       </c>
@@ -959,7 +877,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="12" t="s">
         <v>11</v>
       </c>
@@ -975,7 +893,7 @@
         <v>140.00000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="16" t="s">
         <v>12</v>
       </c>
@@ -991,7 +909,7 @@
         <v>140.00000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="12" t="s">
         <v>13</v>
       </c>
@@ -1007,7 +925,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="16" t="s">
         <v>14</v>
       </c>
@@ -1023,7 +941,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="12" t="s">
         <v>15</v>
       </c>
@@ -1039,7 +957,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="16" t="s">
         <v>16</v>
       </c>
@@ -1055,7 +973,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="12" t="s">
         <v>17</v>
       </c>
@@ -1071,7 +989,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="16" t="s">
         <v>18</v>
       </c>
@@ -1087,25 +1005,25 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="14.4" x14ac:dyDescent="0.35">
       <c r="B20" s="6"/>
       <c r="C20" s="20"/>
       <c r="D20" s="21"/>
       <c r="E20" s="22"/>
     </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="14.4" x14ac:dyDescent="0.35">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="21"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B22" s="6"/>
       <c r="C22" s="23"/>
       <c r="D22" s="24"/>
       <c r="E22" s="23"/>
     </row>
-    <row r="23" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="26"/>
       <c r="C23" s="27">
@@ -1121,13 +1039,13 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="14.4" x14ac:dyDescent="0.35">
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="21"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="23.4" x14ac:dyDescent="0.25">
       <c r="B25" s="30" t="s">
         <v>19</v>
       </c>
@@ -1144,117 +1062,4 @@
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.85546875" style="33"/>
-    <col min="2" max="2" width="11.7109375" style="33" customWidth="1"/>
-    <col min="3" max="3" width="17" style="33" customWidth="1"/>
-    <col min="4" max="6" width="16.7109375" style="33" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" style="33" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" style="33" customWidth="1"/>
-    <col min="9" max="10" width="15.140625" style="33" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" style="33" customWidth="1"/>
-    <col min="12" max="12" width="33.7109375" style="33" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" style="33" customWidth="1"/>
-    <col min="14" max="14" width="43.7109375" style="33" customWidth="1"/>
-    <col min="15" max="15" width="57.140625" style="33" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="33"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="33" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>